--- a/models/Feuille_travail.xlsx
+++ b/models/Feuille_travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gestion_clients\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D40946-4F8E-4CEB-8107-A75563BB540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137005BB-F589-41F9-820B-3DABB66F7F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
     <t>NOTES/INSTRUCTIONS</t>
   </si>
   <si>
-    <t>KARL</t>
-  </si>
-  <si>
     <t>VEHICULE</t>
   </si>
   <si>
@@ -271,13 +268,16 @@
     <t>MARC POTHIER</t>
   </si>
   <si>
-    <t>NATHAN</t>
-  </si>
-  <si>
     <t>ANTHONY LABBE</t>
   </si>
   <si>
-    <t>JONATHAN GRENIER</t>
+    <t>KARL MORIN</t>
+  </si>
+  <si>
+    <t>NATHAN CHARPENTIER</t>
+  </si>
+  <si>
+    <t>JONATHAN FORTIER</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1118,18 +1118,442 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,23 +1603,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,418 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1985,8 +1985,8 @@
   </sheetPr>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,163 +1998,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="159"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="164"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="167"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="163" t="s">
+      <c r="F5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="168"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="171"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="163" t="s">
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="168"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="174"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="164"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:17" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -2171,187 +2171,187 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="128" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="128" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="138"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="94" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="139"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="142"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="123" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="66"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="143" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="104" t="s">
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="104" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="115"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="104" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="104" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="115"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="176">
+      <c r="A20" s="89">
         <f>A18/50</f>
         <v>0</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="104" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="104" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="115"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="104" t="s">
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -2368,56 +2368,56 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="95"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="104" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="110"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="135"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="106" t="s">
+      <c r="B25" s="134"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138"/>
     </row>
     <row r="26" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -2434,72 +2434,72 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="104" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="145"/>
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="104" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="145"/>
     </row>
     <row r="30" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
+      <c r="A30" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
     </row>
     <row r="31" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -2516,66 +2516,66 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="136" t="s">
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="137"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="102"/>
     </row>
     <row r="33" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="116"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:12" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
@@ -2592,120 +2592,120 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="175"/>
     </row>
     <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33">
+      <c r="B38" s="152"/>
+      <c r="C38" s="158">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="160"/>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="55">
+      <c r="B39" s="152"/>
+      <c r="C39" s="176">
         <f>A10</f>
         <v>0</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="177"/>
     </row>
     <row r="40" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64">
+      <c r="B40" s="84"/>
+      <c r="C40" s="143">
         <f>F3</f>
         <v>0</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="77"/>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="B41" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="51" t="s">
+      <c r="A41" s="124"/>
+      <c r="B41" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="49" t="s">
+      <c r="J41" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="172"/>
     </row>
     <row r="42" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="22" t="s">
         <v>49</v>
       </c>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="19"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="19"/>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="19"/>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="19"/>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="19"/>
@@ -2887,20 +2887,20 @@
       <c r="L53" s="25"/>
     </row>
     <row r="54" spans="1:12" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="127"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="157"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
@@ -2983,28 +2983,82 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="92">
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="C18:E21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F32:L32"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I16:L16"/>
@@ -3021,71 +3075,17 @@
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="86" fitToHeight="2" orientation="portrait" r:id="rId1"/>
